--- a/data/trans_orig/P15D$nada-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P15D$nada-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6542</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2962</v>
+        <v>2911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10872</v>
+        <v>10911</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3461361212016247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1567296796057799</v>
+        <v>0.1540141454686105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5752249699519981</v>
+        <v>0.5773220478656114</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>966</v>
+        <v>1009</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8141</v>
+        <v>8872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1564016086326764</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03881392844615418</v>
+        <v>0.04054493418386315</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3270268215825069</v>
+        <v>0.3563962041651473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -786,19 +786,19 @@
         <v>10436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5922</v>
+        <v>5592</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17000</v>
+        <v>16389</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2382827477868686</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1352170936071575</v>
+        <v>0.127678240008889</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3881702826414634</v>
+        <v>0.3742192935349398</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5887</v>
+        <v>5665</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1019829575574942</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3114755101992034</v>
+        <v>0.299734479373977</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6298</v>
+        <v>6556</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08541632626694817</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2529914208031344</v>
+        <v>0.2633601106245211</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -857,19 +857,19 @@
         <v>4054</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1080</v>
+        <v>989</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9300</v>
+        <v>9033</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09256576167356377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02464959980643781</v>
+        <v>0.02259352194030046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2123574126325259</v>
+        <v>0.2062576843745923</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>7594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3741</v>
+        <v>3502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12042</v>
+        <v>11894</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4017863060408745</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1979397159851068</v>
+        <v>0.185294437388538</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6371450479962558</v>
+        <v>0.6293254356276982</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -907,19 +907,19 @@
         <v>16979</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12344</v>
+        <v>11614</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21155</v>
+        <v>21040</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6820344147535529</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4958251859177394</v>
+        <v>0.466521853801769</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8497641367414079</v>
+        <v>0.845141904201847</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -928,19 +928,19 @@
         <v>24573</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18175</v>
+        <v>17824</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30787</v>
+        <v>31097</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.561091555826592</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4150053001498553</v>
+        <v>0.4069935434857538</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7029810655078047</v>
+        <v>0.7100674187523913</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8449</v>
+        <v>8222</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1500946152000066</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4470258974962749</v>
+        <v>0.4350361497839262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6470</v>
+        <v>6961</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07614765034682255</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2598882052389743</v>
+        <v>0.2795995266582216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -999,19 +999,19 @@
         <v>4732</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1499</v>
+        <v>1748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11585</v>
+        <v>12578</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1080599347129756</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03422198861254743</v>
+        <v>0.03990262851793934</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.264531759786971</v>
+        <v>0.2872072993989063</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>11064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5864</v>
+        <v>6075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16434</v>
+        <v>16590</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3215070103399039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1703894657943637</v>
+        <v>0.1765355951474838</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.477542342604761</v>
+        <v>0.4820808220842259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1053,19 +1053,19 @@
         <v>4622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9944</v>
+        <v>9028</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1518461446420759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05716888512399414</v>
+        <v>0.05709450048206604</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3267075836274052</v>
+        <v>0.2966079033182941</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1074,19 +1074,19 @@
         <v>15686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10176</v>
+        <v>9839</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24418</v>
+        <v>23970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2418794768613882</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1569095816906867</v>
+        <v>0.1517203399461637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3765243635396576</v>
+        <v>0.3696130547450695</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>4757</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1135</v>
+        <v>1638</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10188</v>
+        <v>11131</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1382167059226769</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03298803495209562</v>
+        <v>0.04758267222090819</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2960281851182273</v>
+        <v>0.32344647630889</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1124,19 +1124,19 @@
         <v>5113</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1618</v>
+        <v>1238</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11462</v>
+        <v>10774</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.167976498983561</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05315142404248197</v>
+        <v>0.04067527845071776</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3765666036571002</v>
+        <v>0.353967922964858</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1145,19 +1145,19 @@
         <v>9869</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4447</v>
+        <v>4708</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16856</v>
+        <v>17416</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.152183974735803</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06856779948707485</v>
+        <v>0.07259644542866615</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2599213484763763</v>
+        <v>0.2685507071919457</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>14867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8913</v>
+        <v>8729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20986</v>
+        <v>21383</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4320123719335671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2589939218295585</v>
+        <v>0.2536471298113921</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6098021549812469</v>
+        <v>0.6213341889964404</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1195,19 +1195,19 @@
         <v>18514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12431</v>
+        <v>12668</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23744</v>
+        <v>24309</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.608276072524485</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4084258992717047</v>
+        <v>0.4161997128564874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7801000722144231</v>
+        <v>0.7986815514520745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1216,19 +1216,19 @@
         <v>33381</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24614</v>
+        <v>24482</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40933</v>
+        <v>41618</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5147388372390549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3795447916220817</v>
+        <v>0.3775165478286841</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6311907086243013</v>
+        <v>0.6417407279027935</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>3726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8498</v>
+        <v>8730</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1082639118038521</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02747243574381418</v>
+        <v>0.02824787085054982</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2469244208672611</v>
+        <v>0.253686205323105</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6489</v>
+        <v>6823</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07190128384987808</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2132023821416775</v>
+        <v>0.2241537347816188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1287,19 +1287,19 @@
         <v>5914</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1994</v>
+        <v>2238</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11185</v>
+        <v>12291</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09119771116375396</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03074956687609529</v>
+        <v>0.03451220311213232</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1724740692008554</v>
+        <v>0.189532206628821</v>
       </c>
     </row>
     <row r="12">
@@ -1320,19 +1320,19 @@
         <v>13154</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7139</v>
+        <v>7178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19957</v>
+        <v>20060</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2979560133037149</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1617095054771892</v>
+        <v>0.1625965287702777</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4520279835309053</v>
+        <v>0.4543663906949471</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1341,19 +1341,19 @@
         <v>5316</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1943</v>
+        <v>1920</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10564</v>
+        <v>10860</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2086506185382023</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07627697688161836</v>
+        <v>0.07535274405919991</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.414649587068066</v>
+        <v>0.4262793516038199</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1362,19 +1362,19 @@
         <v>18470</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11964</v>
+        <v>11418</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27287</v>
+        <v>27352</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2652789789149163</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1718358216907925</v>
+        <v>0.164000597660659</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3919165209869358</v>
+        <v>0.3928594770663124</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>5049</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1950</v>
+        <v>1869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10449</v>
+        <v>10288</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1143640983542657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04417104684527721</v>
+        <v>0.04232879149672977</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2366695409244629</v>
+        <v>0.2330316817008922</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1412,19 +1412,19 @@
         <v>4917</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1896</v>
+        <v>1887</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9840</v>
+        <v>9961</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1929999299269742</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07441827074753513</v>
+        <v>0.07408417250810641</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3862314029419879</v>
+        <v>0.390992994524051</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1433,19 +1433,19 @@
         <v>9966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4911</v>
+        <v>4934</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16588</v>
+        <v>16587</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1431371168179327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07054041250377831</v>
+        <v>0.07087098376106574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.238247792512473</v>
+        <v>0.2382377862947761</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>21044</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14189</v>
+        <v>14237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28652</v>
+        <v>27802</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4766482565202111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3213803571568172</v>
+        <v>0.322475125823141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.648977731245507</v>
+        <v>0.6297200601697411</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1483,19 +1483,19 @@
         <v>14267</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9234</v>
+        <v>9000</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19068</v>
+        <v>18802</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.560029830006596</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3624687344269157</v>
+        <v>0.3532686169826794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7484749260048202</v>
+        <v>0.7380185570971676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1504,19 +1504,19 @@
         <v>35310</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26337</v>
+        <v>26959</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44074</v>
+        <v>43614</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5071577520704053</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3782807275052786</v>
+        <v>0.3872093883634734</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6330256114153776</v>
+        <v>0.6264198005463035</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>4902</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1091</v>
+        <v>1114</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11929</v>
+        <v>12164</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1110316318218083</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02471337043936235</v>
+        <v>0.02522476521635763</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2701958107946691</v>
+        <v>0.2755118687119562</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4734</v>
+        <v>5295</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03831962152822753</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1858308335948769</v>
+        <v>0.2078331833323745</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -1575,19 +1575,19 @@
         <v>5878</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2099</v>
+        <v>1983</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12051</v>
+        <v>12583</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08442615219674575</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03014402743560865</v>
+        <v>0.02848791565523661</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1730902164856207</v>
+        <v>0.1807269260460748</v>
       </c>
     </row>
     <row r="16">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6191</v>
+        <v>6030</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07809222291058074</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2509432611871552</v>
+        <v>0.2444394550485202</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5113</v>
+        <v>5065</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1726719749250393</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4693171412572276</v>
+        <v>0.4648786266307641</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1650,19 +1650,19 @@
         <v>3808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8729</v>
+        <v>8993</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1070647793293241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02770306510314411</v>
+        <v>0.02822716313577844</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2454298770693111</v>
+        <v>0.2528684803301122</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>4637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1665</v>
+        <v>1758</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9601</v>
+        <v>9333</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1879588980391345</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06747112096799428</v>
+        <v>0.07127239986789238</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3891685805914194</v>
+        <v>0.3783049165039176</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1713,19 +1713,19 @@
         <v>4637</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1725</v>
+        <v>1792</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9612</v>
+        <v>9616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.130381566085344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04851144508161716</v>
+        <v>0.05039338287177442</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2702674835350023</v>
+        <v>0.2703888021743919</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>13400</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7995</v>
+        <v>8091</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19030</v>
+        <v>18301</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5431805195172349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.324094921501778</v>
+        <v>0.3279647872676739</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7714024850308758</v>
+        <v>0.7418251106597499</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1763,7 +1763,7 @@
         <v>9014</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5782</v>
+        <v>5830</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>10895</v>
@@ -1772,7 +1772,7 @@
         <v>0.8273280250749607</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5306828587427722</v>
+        <v>0.5351213733692355</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1784,19 +1784,19 @@
         <v>22414</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16102</v>
+        <v>16525</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27702</v>
+        <v>27513</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6302232475924566</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4527591261100823</v>
+        <v>0.4646515044260137</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7789230997848005</v>
+        <v>0.773595612234103</v>
       </c>
     </row>
     <row r="19">
@@ -1813,19 +1813,19 @@
         <v>4706</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1140</v>
+        <v>1225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10622</v>
+        <v>10042</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1907683595330498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04622643872267722</v>
+        <v>0.04966185902789395</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4305823259001182</v>
+        <v>0.4070367796724316</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1847,19 +1847,19 @@
         <v>4706</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1202</v>
+        <v>1538</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10716</v>
+        <v>10652</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1323304069928752</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03380165270904514</v>
+        <v>0.04325559484715811</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3012974934023434</v>
+        <v>0.2995167739017189</v>
       </c>
     </row>
     <row r="20">
@@ -1880,19 +1880,19 @@
         <v>32687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23726</v>
+        <v>23625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43664</v>
+        <v>43417</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2676366475002185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1942601134826126</v>
+        <v>0.1934365097140119</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3575106492060959</v>
+        <v>0.3554881343052875</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1901,19 +1901,19 @@
         <v>15712</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9364</v>
+        <v>9836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24166</v>
+        <v>24106</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1713378689365216</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1021128354509807</v>
+        <v>0.1072596429119606</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2635291777773491</v>
+        <v>0.2628730227247473</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -1922,19 +1922,19 @@
         <v>48399</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37406</v>
+        <v>37836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60970</v>
+        <v>62874</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2263394698342383</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1749303422991313</v>
+        <v>0.1769383264532439</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.285127237907881</v>
+        <v>0.2940317308481946</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>16370</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10341</v>
+        <v>10025</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25075</v>
+        <v>25641</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1340349945438321</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08467196569524797</v>
+        <v>0.08208560058275456</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2053090878826451</v>
+        <v>0.2099429203479405</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1972,19 +1972,19 @@
         <v>12156</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6325</v>
+        <v>6264</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18919</v>
+        <v>20088</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1325588380640771</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06896902897984661</v>
+        <v>0.0683072708721237</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2063089548335788</v>
+        <v>0.219058822511954</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -1993,19 +1993,19 @@
         <v>28526</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19317</v>
+        <v>19714</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41559</v>
+        <v>40864</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1334019533223704</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09033529882379497</v>
+        <v>0.09219451049291885</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1943525442761642</v>
+        <v>0.1911012631917252</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>56905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45897</v>
+        <v>46412</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68449</v>
+        <v>68078</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4659252528449242</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3757936211397264</v>
+        <v>0.3800132977820825</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5604457425034209</v>
+        <v>0.5574085824519237</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -2043,19 +2043,19 @@
         <v>58774</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49124</v>
+        <v>49183</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67702</v>
+        <v>66976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6409206741229361</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5356877241484193</v>
+        <v>0.5363350924593552</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7382847859262227</v>
+        <v>0.730362902892597</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>112</v>
@@ -2064,19 +2064,19 @@
         <v>115679</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>99159</v>
+        <v>100826</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129422</v>
+        <v>129880</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5409710333941646</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.463715797569944</v>
+        <v>0.4715112286935673</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6052422195040704</v>
+        <v>0.6073844484316124</v>
       </c>
     </row>
     <row r="23">
@@ -2093,19 +2093,19 @@
         <v>16171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9532</v>
+        <v>9314</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25844</v>
+        <v>26311</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1324031051110253</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07804604821959625</v>
+        <v>0.07626263756580995</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2116069218749858</v>
+        <v>0.2154323693315216</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2114,19 +2114,19 @@
         <v>5060</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10759</v>
+        <v>11506</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05518261887646521</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0208937692004012</v>
+        <v>0.0210228962118066</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.117329814506223</v>
+        <v>0.125470818817285</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -2135,19 +2135,19 @@
         <v>21231</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12986</v>
+        <v>13561</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31840</v>
+        <v>31761</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09928754344922659</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06073090909449678</v>
+        <v>0.06341780214717381</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1488987103400248</v>
+        <v>0.1485325471055461</v>
       </c>
     </row>
     <row r="24">
@@ -2408,19 +2408,19 @@
         <v>14441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8512</v>
+        <v>8635</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22500</v>
+        <v>22066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1918266114363632</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.113066504910081</v>
+        <v>0.114699790007403</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2988860859357727</v>
+        <v>0.2931151480647424</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2429,19 +2429,19 @@
         <v>13918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7613</v>
+        <v>8550</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21418</v>
+        <v>22444</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1707677291824668</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09341238695757302</v>
+        <v>0.1049070279041765</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2627821124844217</v>
+        <v>0.2753757167572818</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2450,19 +2450,19 @@
         <v>28359</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19863</v>
+        <v>19692</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38986</v>
+        <v>38379</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1808792423948333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.126690255863929</v>
+        <v>0.1255970094464048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2486576912727507</v>
+        <v>0.2447890471612818</v>
       </c>
     </row>
     <row r="5">
@@ -2479,19 +2479,19 @@
         <v>5400</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2021</v>
+        <v>1986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11845</v>
+        <v>11403</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07173068517781332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02684633797846047</v>
+        <v>0.02638420887707217</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1573441633748663</v>
+        <v>0.1514662832594561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2500,19 +2500,19 @@
         <v>9102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4804</v>
+        <v>4827</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16026</v>
+        <v>17127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1116707557110355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05894763542006101</v>
+        <v>0.05921997321858329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1966325515558124</v>
+        <v>0.2101308082539398</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -2521,19 +2521,19 @@
         <v>14501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9000</v>
+        <v>7671</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24226</v>
+        <v>22814</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09249335844794923</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05740493352938134</v>
+        <v>0.04893022619486493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1545206119042039</v>
+        <v>0.1455102600892298</v>
       </c>
     </row>
     <row r="6">
@@ -2550,19 +2550,19 @@
         <v>44027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35272</v>
+        <v>34908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53028</v>
+        <v>52178</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5848361236859086</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4685353198733556</v>
+        <v>0.4637059602191505</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.704406026537049</v>
+        <v>0.6931069277844301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -2571,19 +2571,19 @@
         <v>47751</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38077</v>
+        <v>38658</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56505</v>
+        <v>57159</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5858744492681425</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4671769535194665</v>
+        <v>0.4743075256069386</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6932763949009771</v>
+        <v>0.7012990198649746</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -2592,19 +2592,19 @@
         <v>91778</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78039</v>
+        <v>77586</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>103941</v>
+        <v>104318</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5853758927580242</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.497745769992228</v>
+        <v>0.4948588388789691</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6629586551403203</v>
+        <v>0.665358951393128</v>
       </c>
     </row>
     <row r="7">
@@ -2621,19 +2621,19 @@
         <v>11413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6433</v>
+        <v>5969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19585</v>
+        <v>19686</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1516065796999149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08545141334690484</v>
+        <v>0.07928821086712921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2601592179575388</v>
+        <v>0.2615065938935917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2642,19 +2642,19 @@
         <v>10733</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5646</v>
+        <v>5549</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18453</v>
+        <v>18466</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1316870658383553</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06927751636957302</v>
+        <v>0.06807894111183088</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2264107885946086</v>
+        <v>0.2265694665484309</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -2663,19 +2663,19 @@
         <v>22146</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14651</v>
+        <v>14645</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31843</v>
+        <v>32356</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1412515063991933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09344604773466568</v>
+        <v>0.09340783079219706</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2031038393509971</v>
+        <v>0.2063724996171249</v>
       </c>
     </row>
     <row r="8">
@@ -2696,19 +2696,19 @@
         <v>27988</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19887</v>
+        <v>20021</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36104</v>
+        <v>38187</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.295794798049154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2101768583513314</v>
+        <v>0.2115949259092378</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3815682361857133</v>
+        <v>0.4035746196869596</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -2717,19 +2717,19 @@
         <v>29016</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20614</v>
+        <v>20998</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39182</v>
+        <v>38537</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3488724219457937</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2478474406681029</v>
+        <v>0.2524661291252996</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4710967076614977</v>
+        <v>0.4633405885472089</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -2738,19 +2738,19 @@
         <v>57005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45005</v>
+        <v>44969</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70482</v>
+        <v>69970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3206247213026488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2531310827616107</v>
+        <v>0.2529278395119349</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3964251180843792</v>
+        <v>0.3935467711259611</v>
       </c>
     </row>
     <row r="9">
@@ -2767,19 +2767,19 @@
         <v>6907</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2840</v>
+        <v>2801</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13614</v>
+        <v>13092</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07299303282662793</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0300180366179458</v>
+        <v>0.02960689544650193</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1438774564118943</v>
+        <v>0.1383644939146967</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -2788,19 +2788,19 @@
         <v>8701</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3946</v>
+        <v>3974</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15748</v>
+        <v>15877</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.104614218245687</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04743818791478353</v>
+        <v>0.04778445840588645</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1893475884381292</v>
+        <v>0.1908985174412479</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -2809,19 +2809,19 @@
         <v>15608</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9409</v>
+        <v>9396</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24262</v>
+        <v>25497</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08778554894733306</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05292313208292065</v>
+        <v>0.05284583847064954</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1364624457369353</v>
+        <v>0.1434095256470739</v>
       </c>
     </row>
     <row r="10">
@@ -2838,19 +2838,19 @@
         <v>54369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44097</v>
+        <v>44315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63899</v>
+        <v>63355</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.574602825418644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4660386062354545</v>
+        <v>0.4683471988764386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6753194560523738</v>
+        <v>0.6695694706114308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -2859,19 +2859,19 @@
         <v>40179</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31447</v>
+        <v>31187</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50248</v>
+        <v>49841</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4830773380140528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3780988899257361</v>
+        <v>0.3749654018626537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.60414369363689</v>
+        <v>0.5992570825355755</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -2880,19 +2880,19 @@
         <v>94548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82245</v>
+        <v>81662</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108674</v>
+        <v>107741</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5317868389227116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4625892933115959</v>
+        <v>0.4593081025126479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6112364196680189</v>
+        <v>0.605988968204257</v>
       </c>
     </row>
     <row r="11">
@@ -2909,19 +2909,19 @@
         <v>5356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1523</v>
+        <v>992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12953</v>
+        <v>11968</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05660934370557404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01609932208343471</v>
+        <v>0.01048675760834281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1368897302381545</v>
+        <v>0.1264851729922623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -2930,19 +2930,19 @@
         <v>5276</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2043</v>
+        <v>2061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11945</v>
+        <v>11280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0634360217944665</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02455755449356748</v>
+        <v>0.0247827370968949</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1436219440008273</v>
+        <v>0.1356238181930609</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -2951,19 +2951,19 @@
         <v>10633</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4883</v>
+        <v>4465</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19529</v>
+        <v>18724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05980289082730655</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0274622541064796</v>
+        <v>0.02511217386125533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1098426066530714</v>
+        <v>0.1053141487827156</v>
       </c>
     </row>
     <row r="12">
@@ -2984,19 +2984,19 @@
         <v>17220</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11139</v>
+        <v>11175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24588</v>
+        <v>25087</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2547443392103478</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1647918910287425</v>
+        <v>0.1653200369138109</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3637479150341922</v>
+        <v>0.3711189183841508</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -3005,19 +3005,19 @@
         <v>20245</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13506</v>
+        <v>13201</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29084</v>
+        <v>28200</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3241237886410384</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2162201597636619</v>
+        <v>0.2113392089141693</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4656333761622224</v>
+        <v>0.4514757805465206</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -3026,19 +3026,19 @@
         <v>37465</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27914</v>
+        <v>27989</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>47744</v>
+        <v>48149</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2880643140644407</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2146265457838489</v>
+        <v>0.2152049730851729</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3670963893243401</v>
+        <v>0.3702121589791261</v>
       </c>
     </row>
     <row r="13">
@@ -3055,19 +3055,19 @@
         <v>9960</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4934</v>
+        <v>4460</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17143</v>
+        <v>17332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1473419285762364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07298971645806919</v>
+        <v>0.06598629850845975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2536033713336156</v>
+        <v>0.256406409460113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3076,19 +3076,19 @@
         <v>3050</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8335</v>
+        <v>8120</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0488284545053144</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01511746206609516</v>
+        <v>0.01483153347585515</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1334358141622608</v>
+        <v>0.130002205604716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -3097,19 +3097,19 @@
         <v>13010</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6806</v>
+        <v>7183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20158</v>
+        <v>21648</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1000301308354427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05232801088679588</v>
+        <v>0.05522563347847004</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1549948629837498</v>
+        <v>0.1664501523079221</v>
       </c>
     </row>
     <row r="14">
@@ -3126,19 +3126,19 @@
         <v>36692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28037</v>
+        <v>28937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44178</v>
+        <v>45161</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.542811851995897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4147710184136297</v>
+        <v>0.4280741494924669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6535520059883407</v>
+        <v>0.6680864792498109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -3147,19 +3147,19 @@
         <v>37036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27950</v>
+        <v>29063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5929375756970641</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4474723403758405</v>
+        <v>0.4652888238918833</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7096897073818248</v>
+        <v>0.7098663811381094</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>71</v>
@@ -3168,19 +3168,19 @@
         <v>73729</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62736</v>
+        <v>63454</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84504</v>
+        <v>84839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5668850879032329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4823671283457111</v>
+        <v>0.4878898709153354</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6497351118405662</v>
+        <v>0.6523133307440091</v>
       </c>
     </row>
     <row r="15">
@@ -3197,19 +3197,19 @@
         <v>3725</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>963</v>
+        <v>1122</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8683</v>
+        <v>8517</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05510188021751888</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01424071651015258</v>
+        <v>0.01660336091374285</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.128457808245014</v>
+        <v>0.1259902352166828</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7259</v>
+        <v>6476</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03411018115658319</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1162077695908842</v>
+        <v>0.103684772856392</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -3239,19 +3239,19 @@
         <v>5855</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2133</v>
+        <v>2198</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11887</v>
+        <v>11680</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04502046719688372</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01639915035922682</v>
+        <v>0.01690133264452406</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09139611546645605</v>
+        <v>0.08980358900254197</v>
       </c>
     </row>
     <row r="16">
@@ -3272,19 +3272,19 @@
         <v>11662</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5743</v>
+        <v>5948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19555</v>
+        <v>19567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.263700195126399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1298477945146685</v>
+        <v>0.134490423315085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4421742398641145</v>
+        <v>0.4424505466029234</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3293,19 +3293,19 @@
         <v>8466</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4071</v>
+        <v>4056</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13977</v>
+        <v>13583</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3221848280009776</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1549141538845989</v>
+        <v>0.1543526987513638</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5319351412285209</v>
+        <v>0.5169518621462137</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3314,19 +3314,19 @@
         <v>20128</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12443</v>
+        <v>12428</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29284</v>
+        <v>29281</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2854975274455591</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1764940533858004</v>
+        <v>0.1762843792316068</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4153695815806734</v>
+        <v>0.4153273795995461</v>
       </c>
     </row>
     <row r="17">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5122</v>
+        <v>4416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02065657958849522</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1158264988537387</v>
+        <v>0.09985511354954806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4141</v>
+        <v>4104</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03759536918006792</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1575859405264674</v>
+        <v>0.156190487595545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5832</v>
+        <v>5947</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02696969822606348</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08271571132434655</v>
+        <v>0.08434781186403892</v>
       </c>
     </row>
     <row r="18">
@@ -3414,19 +3414,19 @@
         <v>28896</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21476</v>
+        <v>21981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35305</v>
+        <v>35429</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6533830963104608</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.485607823593124</v>
+        <v>0.4970218198280777</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.798301071686475</v>
+        <v>0.8011150179613152</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -3435,19 +3435,19 @@
         <v>14654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9164</v>
+        <v>9496</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19853</v>
+        <v>19724</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5576921970435506</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3487733519654166</v>
+        <v>0.3613808885015166</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7555651278761243</v>
+        <v>0.7506549781465059</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -3456,19 +3456,19 @@
         <v>43550</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34062</v>
+        <v>34451</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>51438</v>
+        <v>52197</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6177189187526883</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4831423084049046</v>
+        <v>0.4886635642565271</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7296094991024753</v>
+        <v>0.7403715272195694</v>
       </c>
     </row>
     <row r="19">
@@ -3485,19 +3485,19 @@
         <v>2753</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7104</v>
+        <v>6631</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06226012897464491</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01850088559370597</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1606355752545739</v>
+        <v>0.1499278597591423</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7727</v>
+        <v>6039</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08252760577540398</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2940698011028194</v>
+        <v>0.2298259227274586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -3527,19 +3527,19 @@
         <v>4922</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1860</v>
+        <v>1799</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10753</v>
+        <v>10248</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06981385557568918</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02638089803841839</v>
+        <v>0.02552257187722809</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.152529729876056</v>
+        <v>0.1453650240187043</v>
       </c>
     </row>
     <row r="20">
@@ -3560,19 +3560,19 @@
         <v>71311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>56060</v>
+        <v>57885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87519</v>
+        <v>87506</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2531250905422824</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1989876515295553</v>
+        <v>0.2054670861458213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3106560245353798</v>
+        <v>0.3106081793367695</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -3581,19 +3581,19 @@
         <v>71646</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57428</v>
+        <v>57531</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86928</v>
+        <v>88048</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2827226310584978</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2266191341828957</v>
+        <v>0.2270252284064547</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3430260369213836</v>
+        <v>0.3474460916905645</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -3602,19 +3602,19 @@
         <v>142957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>122797</v>
+        <v>124079</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164677</v>
+        <v>164847</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2671409654381952</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2294679292401141</v>
+        <v>0.2318643153666837</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.307728320511123</v>
+        <v>0.3080463075255241</v>
       </c>
     </row>
     <row r="21">
@@ -3631,19 +3631,19 @@
         <v>23180</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14888</v>
+        <v>14543</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34210</v>
+        <v>34424</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0822793099261388</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05284669686585362</v>
+        <v>0.05162005404419154</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.121431709675932</v>
+        <v>0.1221887524702352</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -3652,19 +3652,19 @@
         <v>21840</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13857</v>
+        <v>14487</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32262</v>
+        <v>32882</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08618459501921232</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05468233138913536</v>
+        <v>0.05716608181892709</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.127308328352349</v>
+        <v>0.1297559603096637</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>43</v>
@@ -3673,19 +3673,19 @@
         <v>45020</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33132</v>
+        <v>33390</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58817</v>
+        <v>59676</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08412865234928385</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06191297418383423</v>
+        <v>0.06239420229108672</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1099106722826269</v>
+        <v>0.111515434940019</v>
       </c>
     </row>
     <row r="22">
@@ -3702,19 +3702,19 @@
         <v>163985</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145727</v>
+        <v>144812</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180709</v>
+        <v>179256</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5820762793230269</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5172694610484908</v>
+        <v>0.5140192061628249</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6414389745237071</v>
+        <v>0.6362827020058037</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -3723,19 +3723,19 @@
         <v>139620</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121762</v>
+        <v>121662</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>155240</v>
+        <v>153686</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5509543724672851</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4804876679699533</v>
+        <v>0.4800911502652568</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6125962751772976</v>
+        <v>0.6064612229411799</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>286</v>
@@ -3744,19 +3744,19 @@
         <v>303604</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>279980</v>
+        <v>281241</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>327023</v>
+        <v>327503</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5673385428285587</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5231917014287871</v>
+        <v>0.5255489257966232</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6110996778939262</v>
+        <v>0.6119973382737078</v>
       </c>
     </row>
     <row r="23">
@@ -3773,19 +3773,19 @@
         <v>23248</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15127</v>
+        <v>15272</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33524</v>
+        <v>35044</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08251932020855192</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05369448762778187</v>
+        <v>0.05420811445738795</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.118995376205586</v>
+        <v>0.124390860828819</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -3794,19 +3794,19 @@
         <v>20308</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12687</v>
+        <v>12891</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28939</v>
+        <v>30257</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08013840145500477</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05006586185945009</v>
+        <v>0.05086875913402818</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.11419655503792</v>
+        <v>0.1193978249945806</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>41</v>
@@ -3815,19 +3815,19 @@
         <v>43556</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>32015</v>
+        <v>30073</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57794</v>
+        <v>56904</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08139183938396222</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05982568134934324</v>
+        <v>0.05619690411730146</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1079981242308611</v>
+        <v>0.1063352759318728</v>
       </c>
     </row>
     <row r="24">
@@ -4088,19 +4088,19 @@
         <v>9074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4609</v>
+        <v>4448</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16368</v>
+        <v>15948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1202819277726302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0610964283076653</v>
+        <v>0.05896301634882435</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2169689719535547</v>
+        <v>0.2114004393725608</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4109,19 +4109,19 @@
         <v>11531</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6088</v>
+        <v>6263</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19686</v>
+        <v>18915</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1693589157821571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0894229797062468</v>
+        <v>0.0919929071220634</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2891312770352971</v>
+        <v>0.2778097062072439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4130,19 +4130,19 @@
         <v>20605</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13072</v>
+        <v>12967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30293</v>
+        <v>30542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1435629948356556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0910815992326541</v>
+        <v>0.09034981134287905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2110644911800009</v>
+        <v>0.2128026197534619</v>
       </c>
     </row>
     <row r="5">
@@ -4159,19 +4159,19 @@
         <v>5949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2130</v>
+        <v>2659</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12046</v>
+        <v>12191</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07885334577889436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02823003486954648</v>
+        <v>0.03524631350170473</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1596766552758397</v>
+        <v>0.1616008057625964</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -4180,19 +4180,19 @@
         <v>10202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5253</v>
+        <v>5706</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17566</v>
+        <v>18092</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1498400266606589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07715400275870544</v>
+        <v>0.08380746301041232</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2580027264740708</v>
+        <v>0.2657301254543701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -4201,19 +4201,19 @@
         <v>16151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9362</v>
+        <v>9241</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25459</v>
+        <v>25287</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1125278996832441</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06522860411390401</v>
+        <v>0.06438640308597129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1773823599142476</v>
+        <v>0.1761868297032913</v>
       </c>
     </row>
     <row r="6">
@@ -4230,19 +4230,19 @@
         <v>48102</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38881</v>
+        <v>39123</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55796</v>
+        <v>55664</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6376148672578394</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5153853198412565</v>
+        <v>0.5185991282859213</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7396108978495426</v>
+        <v>0.7378639529018115</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -4251,19 +4251,19 @@
         <v>37195</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28809</v>
+        <v>28663</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45123</v>
+        <v>45345</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5463054422094377</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4231346598208599</v>
+        <v>0.4209914490888718</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6627383145928892</v>
+        <v>0.6659999489463192</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>81</v>
@@ -4272,19 +4272,19 @@
         <v>85297</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72273</v>
+        <v>72629</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>96443</v>
+        <v>97053</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5942996408298143</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5035600965645219</v>
+        <v>0.5060365838190475</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6719564264901624</v>
+        <v>0.6762088368209256</v>
       </c>
     </row>
     <row r="7">
@@ -4301,19 +4301,19 @@
         <v>12316</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6870</v>
+        <v>6608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20961</v>
+        <v>20376</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.163249859190636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09106661084600809</v>
+        <v>0.08759193616767051</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2778495737060819</v>
+        <v>0.2700904871109608</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -4322,19 +4322,19 @@
         <v>9157</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4441</v>
+        <v>4303</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17143</v>
+        <v>15950</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1344956153477463</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0652291628048189</v>
+        <v>0.06319565611820888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2517831153449168</v>
+        <v>0.234267455898391</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4343,19 +4343,19 @@
         <v>21473</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13887</v>
+        <v>13551</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32111</v>
+        <v>31280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1496094646512859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09675481921835527</v>
+        <v>0.09441778913253199</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.223728153948841</v>
+        <v>0.2179382492658251</v>
       </c>
     </row>
     <row r="8">
@@ -4376,19 +4376,19 @@
         <v>5738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1995</v>
+        <v>2106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12055</v>
+        <v>12108</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1145325849570648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03980829423557593</v>
+        <v>0.0420386973227091</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2406122784372464</v>
+        <v>0.2416597638763107</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -4397,19 +4397,19 @@
         <v>6207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2089</v>
+        <v>2109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12064</v>
+        <v>12507</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1278037436820434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0430053444736764</v>
+        <v>0.043429295806364</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2484214286224943</v>
+        <v>0.2575308895985823</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -4418,19 +4418,19 @@
         <v>11945</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6294</v>
+        <v>6208</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19640</v>
+        <v>19694</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1210646890730367</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06379349552852534</v>
+        <v>0.0629165157225295</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1990562266150555</v>
+        <v>0.1996039073340289</v>
       </c>
     </row>
     <row r="9">
@@ -4447,19 +4447,19 @@
         <v>8264</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3845</v>
+        <v>4249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14401</v>
+        <v>13824</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1649428815958696</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07673471077924722</v>
+        <v>0.08479982149709882</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2874262630508331</v>
+        <v>0.2759106227398588</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -4468,19 +4468,19 @@
         <v>4389</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1154</v>
+        <v>1267</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10464</v>
+        <v>9981</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09038256658508001</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02376501041957103</v>
+        <v>0.02608742064832748</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2154752345600471</v>
+        <v>0.2055164954563033</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -4489,19 +4489,19 @@
         <v>12653</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7327</v>
+        <v>7170</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20767</v>
+        <v>20022</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.128244070989871</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07426371777270997</v>
+        <v>0.07267218203667608</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2104766492342934</v>
+        <v>0.2029291810726173</v>
       </c>
     </row>
     <row r="10">
@@ -4518,19 +4518,19 @@
         <v>30478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22604</v>
+        <v>23764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36628</v>
+        <v>37318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6083065736969506</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4511548693206165</v>
+        <v>0.4743108720099401</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7310546682599313</v>
+        <v>0.7448167909251193</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -4539,19 +4539,19 @@
         <v>31856</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24181</v>
+        <v>23802</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38257</v>
+        <v>38110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6559533482722116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4979107487839813</v>
+        <v>0.4901080276712087</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7877732243853626</v>
+        <v>0.784747753981812</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -4560,19 +4560,19 @@
         <v>62334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53087</v>
+        <v>52359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72220</v>
+        <v>71612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.631758459004452</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5380414022273047</v>
+        <v>0.5306638903089581</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7319572094871216</v>
+        <v>0.7257938816624582</v>
       </c>
     </row>
     <row r="11">
@@ -4589,19 +4589,19 @@
         <v>6406</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2550</v>
+        <v>2247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13021</v>
+        <v>12318</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1278524341729074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05089793628496642</v>
+        <v>0.04484963522046436</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2598930095704659</v>
+        <v>0.2458617694540595</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -4610,19 +4610,19 @@
         <v>6112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2169</v>
+        <v>2304</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13045</v>
+        <v>12680</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1258603414606649</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04465686192027164</v>
+        <v>0.04744594344813163</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2686231494263098</v>
+        <v>0.2610963687813981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -4631,19 +4631,19 @@
         <v>12518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6753</v>
+        <v>7610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20619</v>
+        <v>21549</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1268719201669567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06844731336662635</v>
+        <v>0.07713233055921191</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.208977223176608</v>
+        <v>0.218405664314181</v>
       </c>
     </row>
     <row r="12">
@@ -4664,19 +4664,19 @@
         <v>15257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9071</v>
+        <v>9609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22276</v>
+        <v>22415</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3194087828963322</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1899060439121057</v>
+        <v>0.2011639071737517</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4663647376458239</v>
+        <v>0.4692826284755139</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4685,19 +4685,19 @@
         <v>6184</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2689</v>
+        <v>2824</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12033</v>
+        <v>12858</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1233461926824229</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.053638059534146</v>
+        <v>0.05633424843892966</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2399915995585226</v>
+        <v>0.2564619200442664</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -4706,19 +4706,19 @@
         <v>21441</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13856</v>
+        <v>14249</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29507</v>
+        <v>30767</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2190014673682543</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1415292736830004</v>
+        <v>0.145537387752708</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3013824570522142</v>
+        <v>0.3142535619376198</v>
       </c>
     </row>
     <row r="13">
@@ -4735,19 +4735,19 @@
         <v>5803</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2033</v>
+        <v>2611</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11465</v>
+        <v>11677</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1214816171753733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04256813853019252</v>
+        <v>0.05466365466952675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.240031130759388</v>
+        <v>0.2444574557132272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4756,19 +4756,19 @@
         <v>4884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10547</v>
+        <v>10914</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09741279620055351</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03758538212003072</v>
+        <v>0.03746624545848059</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.210358754903595</v>
+        <v>0.2176880484431068</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -4777,19 +4777,19 @@
         <v>10687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5659</v>
+        <v>5327</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18058</v>
+        <v>18271</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.10915552427121</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05780213128678925</v>
+        <v>0.05441174105479776</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1844484382699497</v>
+        <v>0.1866175098165831</v>
       </c>
     </row>
     <row r="14">
@@ -4806,19 +4806,19 @@
         <v>26670</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19764</v>
+        <v>19325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33328</v>
+        <v>33190</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5583484765991604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4137779841401079</v>
+        <v>0.4045945341756659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.697740478273666</v>
+        <v>0.6948611031275718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -4827,19 +4827,19 @@
         <v>35421</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27458</v>
+        <v>27956</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41331</v>
+        <v>41290</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.706464074893524</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5476516799933662</v>
+        <v>0.5575856640964914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8243451859755346</v>
+        <v>0.823520557938305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -4848,19 +4848,19 @@
         <v>62091</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>52659</v>
+        <v>52097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71055</v>
+        <v>71157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6342012417612782</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5378606098740915</v>
+        <v>0.5321203885126999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7257638190410373</v>
+        <v>0.726800538565356</v>
       </c>
     </row>
     <row r="15">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4650</v>
+        <v>4876</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01887312328374626</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09734290309789294</v>
+        <v>0.1020912487402984</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -4898,19 +4898,19 @@
         <v>4671</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1510</v>
+        <v>1063</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10768</v>
+        <v>10339</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09315982547997426</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03012119087256364</v>
+        <v>0.02119999824748356</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2147587916752204</v>
+        <v>0.2062065164036116</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -4919,19 +4919,19 @@
         <v>5572</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2052</v>
+        <v>2036</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12960</v>
+        <v>11718</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05691673139286661</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02095944775166461</v>
+        <v>0.02079650885510596</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1323720261928679</v>
+        <v>0.1196936766981656</v>
       </c>
     </row>
     <row r="16">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7266</v>
+        <v>7486</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09162199857069231</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2870857831456705</v>
+        <v>0.2957684378195704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4973,19 +4973,19 @@
         <v>3181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8676</v>
+        <v>7829</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.141839845598259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04402878930590878</v>
+        <v>0.04297562194808514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3867811680838213</v>
+        <v>0.3490341535154739</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -4994,19 +4994,19 @@
         <v>5500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2078</v>
+        <v>2034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11755</v>
+        <v>11155</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1152165093276923</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04352589696046328</v>
+        <v>0.04259558034600393</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2462261971482612</v>
+        <v>0.2336592143295541</v>
       </c>
     </row>
     <row r="17">
@@ -5023,19 +5023,19 @@
         <v>5459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2020</v>
+        <v>1961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10365</v>
+        <v>10366</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2157058360281585</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07980614821743517</v>
+        <v>0.07746265574562208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4095461531167292</v>
+        <v>0.4095593517266651</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -5057,19 +5057,19 @@
         <v>5459</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1838</v>
+        <v>1901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10821</v>
+        <v>11320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.114357929461789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03849302621003627</v>
+        <v>0.03981478240703343</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.226659169963199</v>
+        <v>0.2371109540656296</v>
       </c>
     </row>
     <row r="18">
@@ -5086,19 +5086,19 @@
         <v>15805</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11063</v>
+        <v>10631</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20395</v>
+        <v>19974</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6244809477562154</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4371125355154352</v>
+        <v>0.4200292140385774</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8058288449817422</v>
+        <v>0.789190229441542</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -5107,19 +5107,19 @@
         <v>18169</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12688</v>
+        <v>13337</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21274</v>
+        <v>21401</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8100196960865936</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5656529254836661</v>
+        <v>0.5946150838826698</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9484600512736888</v>
+        <v>0.954106253119023</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -5128,19 +5128,19 @@
         <v>33974</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27176</v>
+        <v>27009</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39535</v>
+        <v>39637</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7116550552188138</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5692430618015381</v>
+        <v>0.5657474109150196</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.828138602761708</v>
+        <v>0.8302614378716452</v>
       </c>
     </row>
     <row r="19">
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5499</v>
+        <v>5541</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06819121764493379</v>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2172571443554948</v>
+        <v>0.2189533657878584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4607</v>
+        <v>5822</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04814045831514739</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2054013740660581</v>
+        <v>0.2595531477366311</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -5199,19 +5199,19 @@
         <v>2806</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7120</v>
+        <v>7808</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0587705059917049</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01641110541520178</v>
+        <v>0.01722980618020344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1491336099792537</v>
+        <v>0.1635525111100488</v>
       </c>
     </row>
     <row r="20">
@@ -5232,19 +5232,19 @@
         <v>32388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22438</v>
+        <v>22552</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42512</v>
+        <v>44219</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1630675330196969</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.112969624444649</v>
+        <v>0.1135460216901495</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2140381102910011</v>
+        <v>0.2226336618223491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -5253,19 +5253,19 @@
         <v>27103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18306</v>
+        <v>17735</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37720</v>
+        <v>37075</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.143238989416203</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09674754156564695</v>
+        <v>0.09372867318201458</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1993488686920455</v>
+        <v>0.1959364844250065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -5274,19 +5274,19 @@
         <v>59491</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46494</v>
+        <v>44895</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75642</v>
+        <v>75324</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.153393546153449</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1198810510752711</v>
+        <v>0.1157589622267603</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1950362076553544</v>
+        <v>0.1942174435096524</v>
       </c>
     </row>
     <row r="21">
@@ -5303,19 +5303,19 @@
         <v>25475</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17414</v>
+        <v>17369</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36300</v>
+        <v>35500</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1282606528135976</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08767485673011537</v>
+        <v>0.08745097465357801</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1827619403020461</v>
+        <v>0.1787374702592777</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -5324,19 +5324,19 @@
         <v>19475</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11716</v>
+        <v>11708</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28512</v>
+        <v>28944</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1029255387867492</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06192054831022711</v>
+        <v>0.0618737796938511</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1506847942622639</v>
+        <v>0.1529676499026081</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>46</v>
@@ -5345,19 +5345,19 @@
         <v>44950</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34631</v>
+        <v>33609</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58365</v>
+        <v>59548</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.115900110090357</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08929399538742501</v>
+        <v>0.08665768773830274</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1504880193023816</v>
+        <v>0.1535383953342522</v>
       </c>
     </row>
     <row r="22">
@@ -5374,19 +5374,19 @@
         <v>121054</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106766</v>
+        <v>105773</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135021</v>
+        <v>133530</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6094852222684108</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5375492995231352</v>
+        <v>0.5325457312272547</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6798055130406594</v>
+        <v>0.6722985434490217</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -5395,19 +5395,19 @@
         <v>122641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>108165</v>
+        <v>107596</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136468</v>
+        <v>135597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6481468879785839</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5716447679424773</v>
+        <v>0.5686355371662813</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7212200084677132</v>
+        <v>0.7166184754184916</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>225</v>
@@ -5416,19 +5416,19 @@
         <v>243695</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>222869</v>
+        <v>222115</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>261671</v>
+        <v>261616</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6283475479029359</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5746482107064564</v>
+        <v>0.5727041141362453</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6746965410671941</v>
+        <v>0.674554408211407</v>
       </c>
     </row>
     <row r="23">
@@ -5445,19 +5445,19 @@
         <v>21349</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12983</v>
+        <v>13774</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32336</v>
+        <v>33008</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1074862604721474</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0653645228906615</v>
+        <v>0.06935172744312088</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1628077830114805</v>
+        <v>0.1661888603219004</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -5466,19 +5466,19 @@
         <v>21020</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12699</v>
+        <v>13287</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30751</v>
+        <v>31347</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1110895892605081</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06711440311204078</v>
+        <v>0.07022309481274877</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1625161789755877</v>
+        <v>0.1656645376462063</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -5487,19 +5487,19 @@
         <v>42369</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30074</v>
+        <v>30043</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56513</v>
+        <v>56552</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1092442592475709</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07754387736552745</v>
+        <v>0.07746318620976701</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1457146910805328</v>
+        <v>0.1458152484294196</v>
       </c>
     </row>
     <row r="24">
@@ -5760,19 +5760,19 @@
         <v>6341</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2745</v>
+        <v>2792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13068</v>
+        <v>12467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1516450667802871</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06564277925542003</v>
+        <v>0.0667738556206581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3125296857673469</v>
+        <v>0.2981401506938831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5781,19 +5781,19 @@
         <v>8835</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4931</v>
+        <v>5280</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13386</v>
+        <v>14357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1818672887902428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1014952204502115</v>
+        <v>0.1086877234416813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2755413851346001</v>
+        <v>0.295533759758731</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -5802,19 +5802,19 @@
         <v>15176</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10078</v>
+        <v>9819</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22735</v>
+        <v>22045</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1678871761079748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1114927231525936</v>
+        <v>0.1086195019401858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2515020108200323</v>
+        <v>0.2438747442556306</v>
       </c>
     </row>
     <row r="5">
@@ -5831,19 +5831,19 @@
         <v>4620</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1601</v>
+        <v>1405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11035</v>
+        <v>11556</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1104964679915733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03827696297007441</v>
+        <v>0.0335977673448533</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2638995837297531</v>
+        <v>0.2763646550989924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -5852,19 +5852,19 @@
         <v>8060</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4445</v>
+        <v>4234</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13233</v>
+        <v>12928</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1659169347920433</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09148792232358161</v>
+        <v>0.08715090163536934</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2723997115746781</v>
+        <v>0.2661124921895227</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -5873,19 +5873,19 @@
         <v>12681</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7469</v>
+        <v>7838</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20075</v>
+        <v>20724</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1402806870495961</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08262733873178831</v>
+        <v>0.08671090662000799</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2220798388755419</v>
+        <v>0.2292617362453375</v>
       </c>
     </row>
     <row r="6">
@@ -5902,19 +5902,19 @@
         <v>22767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16537</v>
+        <v>14796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29592</v>
+        <v>28784</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5444753801629578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3954900765848761</v>
+        <v>0.3538409463697287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7076947603359156</v>
+        <v>0.6883614525742446</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -5923,19 +5923,19 @@
         <v>22096</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15568</v>
+        <v>15362</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28178</v>
+        <v>27658</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4548209924645243</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3204550462380549</v>
+        <v>0.3162048360924801</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5800172566664467</v>
+        <v>0.5693212441325392</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -5944,19 +5944,19 @@
         <v>44862</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35344</v>
+        <v>35495</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>54530</v>
+        <v>53583</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4962930735732847</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3909980336195965</v>
+        <v>0.3926705026709868</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6032409630119606</v>
+        <v>0.5927599314132321</v>
       </c>
     </row>
     <row r="7">
@@ -5973,19 +5973,19 @@
         <v>8086</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3774</v>
+        <v>3706</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14119</v>
+        <v>14669</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1933830850651818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09025380869731832</v>
+        <v>0.0886212511671856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3376645523482064</v>
+        <v>0.3508120963699078</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -5994,19 +5994,19 @@
         <v>9590</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4957</v>
+        <v>4774</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19422</v>
+        <v>18763</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1973947839531896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1020423013272522</v>
+        <v>0.09827198042101475</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.399792554409037</v>
+        <v>0.3862130019824279</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -6015,19 +6015,19 @@
         <v>17676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11357</v>
+        <v>10607</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29184</v>
+        <v>28135</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1955390632691445</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1256386979025878</v>
+        <v>0.1173441867713986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3228551247242746</v>
+        <v>0.3112478482447065</v>
       </c>
     </row>
     <row r="8">
@@ -6048,19 +6048,19 @@
         <v>7520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3813</v>
+        <v>3940</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13793</v>
+        <v>13699</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1522866102728989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07721445267590081</v>
+        <v>0.07977753721228495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2793034169336207</v>
+        <v>0.2774007030132442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -6069,19 +6069,19 @@
         <v>12079</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7920</v>
+        <v>7719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17383</v>
+        <v>17541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1651204095674318</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1082640008899357</v>
+        <v>0.1055158630403259</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2376210681387524</v>
+        <v>0.2397821305435965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -6090,19 +6090,19 @@
         <v>19599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14142</v>
+        <v>13623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27350</v>
+        <v>27107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1599482833936085</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1154123503666547</v>
+        <v>0.1111756429320785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2232019514014172</v>
+        <v>0.2212185891191547</v>
       </c>
     </row>
     <row r="9">
@@ -6119,19 +6119,19 @@
         <v>8556</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3850</v>
+        <v>3698</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16748</v>
+        <v>17422</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1732649210030191</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07795355322842483</v>
+        <v>0.07489148048860858</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3391547938004627</v>
+        <v>0.352788832322215</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -6140,19 +6140,19 @@
         <v>9281</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5323</v>
+        <v>5187</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14555</v>
+        <v>14233</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1268682194266133</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07276302490952261</v>
+        <v>0.07091149663673015</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1989624767174267</v>
+        <v>0.1945585488068447</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -6161,19 +6161,19 @@
         <v>17837</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12182</v>
+        <v>11610</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27656</v>
+        <v>28096</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1455664699676375</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09941948447484099</v>
+        <v>0.09474895320928349</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.225693294943518</v>
+        <v>0.2292911875804957</v>
       </c>
     </row>
     <row r="10">
@@ -6190,19 +6190,19 @@
         <v>28467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21356</v>
+        <v>20224</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35795</v>
+        <v>34884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.576453548170957</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.43244967867282</v>
+        <v>0.4095431925749177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7248435195635637</v>
+        <v>0.7063907029769154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -6211,19 +6211,19 @@
         <v>42051</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35061</v>
+        <v>35077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48954</v>
+        <v>48607</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5748356341614985</v>
+        <v>0.5748356341614984</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4792893817354499</v>
+        <v>0.4795085001108013</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6692036869001082</v>
+        <v>0.664453428409717</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -6232,19 +6232,19 @@
         <v>70518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60447</v>
+        <v>60199</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80279</v>
+        <v>80325</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5754876667516355</v>
+        <v>0.5754876667516358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4932984547888291</v>
+        <v>0.491279317729612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6551467843120345</v>
+        <v>0.6555210396555521</v>
       </c>
     </row>
     <row r="11">
@@ -6261,19 +6261,19 @@
         <v>4839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11346</v>
+        <v>10601</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09799492055312514</v>
+        <v>0.09799492055312516</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03410837366309326</v>
+        <v>0.03415206785084845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2297500577426234</v>
+        <v>0.2146748959973082</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -6282,19 +6282,19 @@
         <v>9742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5952</v>
+        <v>5974</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15371</v>
+        <v>15520</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1331757368444565</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08136733738852109</v>
+        <v>0.08166271402653848</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2101244798646582</v>
+        <v>0.2121527344700604</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -6303,19 +6303,19 @@
         <v>14581</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8927</v>
+        <v>9304</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21163</v>
+        <v>21853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1189975798871183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07284809964648988</v>
+        <v>0.07593243831552962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1727087762093937</v>
+        <v>0.1783355606062414</v>
       </c>
     </row>
     <row r="12">
@@ -6336,19 +6336,19 @@
         <v>8316</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4441</v>
+        <v>4223</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14956</v>
+        <v>13766</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1114400408797706</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05950592890069693</v>
+        <v>0.05658455208563238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2004164379622898</v>
+        <v>0.1844687450329536</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -6357,19 +6357,19 @@
         <v>12211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8053</v>
+        <v>8152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17655</v>
+        <v>17596</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2189270516272729</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1443811871773493</v>
+        <v>0.1461599658976453</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3165296854091589</v>
+        <v>0.3154776834072291</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>35</v>
@@ -6378,19 +6378,19 @@
         <v>20527</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14135</v>
+        <v>14209</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28801</v>
+        <v>28362</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1574158972084716</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1083951805190987</v>
+        <v>0.1089608247054174</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2208635867340844</v>
+        <v>0.2174941842978371</v>
       </c>
     </row>
     <row r="13">
@@ -6407,19 +6407,19 @@
         <v>1274</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3772</v>
+        <v>3685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01706720437782233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004534375289692399</v>
+        <v>0.004425839592325339</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05054264871447734</v>
+        <v>0.04937569772263418</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -6428,19 +6428,19 @@
         <v>13399</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8352</v>
+        <v>8604</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19830</v>
+        <v>20171</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2402165681900732</v>
+        <v>0.2402165681900733</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1497345840320971</v>
+        <v>0.1542655043922285</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3555254549769715</v>
+        <v>0.3616288338526631</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -6449,19 +6449,19 @@
         <v>14672</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8742</v>
+        <v>9198</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22921</v>
+        <v>22953</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1125157894591737</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06704047481784851</v>
+        <v>0.07053631407949904</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1757715163932211</v>
+        <v>0.176013672007188</v>
       </c>
     </row>
     <row r="14">
@@ -6478,19 +6478,19 @@
         <v>48871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39265</v>
+        <v>38033</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56957</v>
+        <v>57253</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6548898061716053</v>
+        <v>0.6548898061716052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5261607094055062</v>
+        <v>0.5096569375048066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7632467872801026</v>
+        <v>0.7672139465393764</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -6499,19 +6499,19 @@
         <v>28478</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22428</v>
+        <v>22253</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34811</v>
+        <v>34015</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5105733028389177</v>
+        <v>0.5105733028389178</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4021092352889048</v>
+        <v>0.398958896779961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6241067145965655</v>
+        <v>0.6098348874474065</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -6520,19 +6520,19 @@
         <v>77349</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>63898</v>
+        <v>65195</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87275</v>
+        <v>88380</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5931607211692264</v>
+        <v>0.5931607211692265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4900079064899757</v>
+        <v>0.4999519060832469</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6692733900389138</v>
+        <v>0.6777541548907458</v>
       </c>
     </row>
     <row r="15">
@@ -6549,19 +6549,19 @@
         <v>16164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9729</v>
+        <v>9677</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26811</v>
+        <v>28209</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.216602948570802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.130369442619727</v>
+        <v>0.1296759914283521</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3592728479612147</v>
+        <v>0.3780133629799647</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -6570,19 +6570,19 @@
         <v>1689</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4548</v>
+        <v>4843</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03028307734373623</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.008538587484113453</v>
+        <v>0.008175784418015848</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08154599241602647</v>
+        <v>0.08682703898934337</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>18</v>
@@ -6591,19 +6591,19 @@
         <v>17853</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10868</v>
+        <v>10872</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>30855</v>
+        <v>31652</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1369075921631281</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08333960317543476</v>
+        <v>0.08337498288355501</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2366109872630504</v>
+        <v>0.242724998506005</v>
       </c>
     </row>
     <row r="16">
@@ -6624,19 +6624,19 @@
         <v>11683</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6007</v>
+        <v>5405</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20367</v>
+        <v>19928</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.211652890705602</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1088259260314802</v>
+        <v>0.09791758250235839</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3689719435803738</v>
+        <v>0.36101320107924</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -6645,19 +6645,19 @@
         <v>9107</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4595</v>
+        <v>4593</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15862</v>
+        <v>16032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1765600379425124</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08909764583478538</v>
+        <v>0.08904940588053392</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.307536259597375</v>
+        <v>0.310821034233951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -6666,19 +6666,19 @@
         <v>20790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13692</v>
+        <v>13114</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32597</v>
+        <v>31098</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1947016566328804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1282294198542399</v>
+        <v>0.1228176434856551</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3052761496870022</v>
+        <v>0.2912392225017664</v>
       </c>
     </row>
     <row r="17">
@@ -6695,19 +6695,19 @@
         <v>4396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1459</v>
+        <v>1382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10434</v>
+        <v>10338</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07964052663411109</v>
+        <v>0.07964052663411107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02643414005383953</v>
+        <v>0.02503098039141787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.189013092682785</v>
+        <v>0.1872876202985998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -6716,19 +6716,19 @@
         <v>10963</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6579</v>
+        <v>6555</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17197</v>
+        <v>17385</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2125434945716075</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1275557283350384</v>
+        <v>0.1270946887711302</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3334238968632681</v>
+        <v>0.3370570110767412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -6737,19 +6737,19 @@
         <v>15359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8719</v>
+        <v>9328</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23257</v>
+        <v>23861</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1438379098926607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08165728421520602</v>
+        <v>0.08735911089441631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2178059187917473</v>
+        <v>0.2234657317457011</v>
       </c>
     </row>
     <row r="18">
@@ -6766,19 +6766,19 @@
         <v>32210</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24144</v>
+        <v>23344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40685</v>
+        <v>39998</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5835185323060409</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4373984132105106</v>
+        <v>0.4228955600196461</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7370507268170942</v>
+        <v>0.7246065119898328</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -6787,19 +6787,19 @@
         <v>26086</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20071</v>
+        <v>18965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33836</v>
+        <v>32988</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5057672020747926</v>
+        <v>0.5057672020747925</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3891460380638684</v>
+        <v>0.3677015204051007</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.65602450318136</v>
+        <v>0.6395708381085392</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -6808,19 +6808,19 @@
         <v>58297</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46928</v>
+        <v>47567</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>69164</v>
+        <v>69774</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5459615685814615</v>
+        <v>0.5459615685814614</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4394887650296472</v>
+        <v>0.4454764797888795</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6477342328574905</v>
+        <v>0.6534469247658052</v>
       </c>
     </row>
     <row r="19">
@@ -6837,19 +6837,19 @@
         <v>6910</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2860</v>
+        <v>2910</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13350</v>
+        <v>14056</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1251880503542461</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05181340070251934</v>
+        <v>0.0527156670417661</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2418399776908035</v>
+        <v>0.2546399796586289</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -6858,19 +6858,19 @@
         <v>5422</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9460</v>
+        <v>9806</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1051292654110876</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05114385707277303</v>
+        <v>0.05122758955492334</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1834203856560321</v>
+        <v>0.1901146280062479</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -6879,19 +6879,19 @@
         <v>12333</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7270</v>
+        <v>7331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19724</v>
+        <v>19478</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1154988648929976</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06808221949295153</v>
+        <v>0.06865817207030511</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1847224128180357</v>
+        <v>0.1824165584403463</v>
       </c>
     </row>
     <row r="20">
@@ -6912,19 +6912,19 @@
         <v>33861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23571</v>
+        <v>23504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45477</v>
+        <v>46512</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1532007515178424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1066436414711335</v>
+        <v>0.1063412246143457</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2057547508631796</v>
+        <v>0.2104399273231093</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -6933,19 +6933,19 @@
         <v>42232</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32887</v>
+        <v>33781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53273</v>
+        <v>53377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1843478725933013</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1435544128909936</v>
+        <v>0.1474579398457022</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2325438645117814</v>
+        <v>0.2329983012079902</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -6954,19 +6954,19 @@
         <v>76093</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62776</v>
+        <v>63057</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93195</v>
+        <v>92662</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1690534031573079</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1394664381448748</v>
+        <v>0.1400915168852289</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2070490366409481</v>
+        <v>0.2058638692610745</v>
       </c>
     </row>
     <row r="21">
@@ -6983,19 +6983,19 @@
         <v>18847</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11812</v>
+        <v>11409</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30874</v>
+        <v>30213</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08526971281777303</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05344117735633263</v>
+        <v>0.05161680792172803</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1396878547870321</v>
+        <v>0.1366979692729175</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>63</v>
@@ -7004,19 +7004,19 @@
         <v>41702</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32039</v>
+        <v>32654</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53386</v>
+        <v>52971</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1820356620090279</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.139853636367952</v>
+        <v>0.1425396842919964</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2330381451123675</v>
+        <v>0.2312246964495173</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>83</v>
@@ -7025,19 +7025,19 @@
         <v>60549</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47113</v>
+        <v>46725</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>75614</v>
+        <v>74371</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1345197503854449</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.104669726442014</v>
+        <v>0.1038064367318228</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1679890891390522</v>
+        <v>0.1652280149564855</v>
       </c>
     </row>
     <row r="22">
@@ -7054,19 +7054,19 @@
         <v>132316</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117155</v>
+        <v>116016</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>148058</v>
+        <v>148392</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5986508241173486</v>
+        <v>0.5986508241173487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5300567223033462</v>
+        <v>0.5249042444834812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6698773122892978</v>
+        <v>0.6713859851094178</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>179</v>
@@ -7075,19 +7075,19 @@
         <v>118711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>106157</v>
+        <v>105981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133216</v>
+        <v>131401</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5181887226547321</v>
+        <v>0.518188722654732</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4633879807482358</v>
+        <v>0.4626180644109299</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5815020963047302</v>
+        <v>0.5735790349205828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>295</v>
@@ -7096,19 +7096,19 @@
         <v>251027</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230853</v>
+        <v>227806</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>272529</v>
+        <v>270749</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5576987996404801</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5128788891850751</v>
+        <v>0.5061085219149805</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6054701947142938</v>
+        <v>0.6015140152094383</v>
       </c>
     </row>
     <row r="23">
@@ -7125,19 +7125,19 @@
         <v>36000</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25650</v>
+        <v>25918</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>50159</v>
+        <v>51069</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1628787115470358</v>
+        <v>0.1628787115470359</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1160517388288644</v>
+        <v>0.1172636391142142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2269383484211031</v>
+        <v>0.2310565377963148</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>40</v>
@@ -7146,19 +7146,19 @@
         <v>26443</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18784</v>
+        <v>18684</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39120</v>
+        <v>39656</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1154277427429386</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08199296686613647</v>
+        <v>0.08155885958613157</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1707633538740913</v>
+        <v>0.1731030310972194</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>76</v>
@@ -7167,19 +7167,19 @@
         <v>62443</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48511</v>
+        <v>48079</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>79560</v>
+        <v>80096</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1387280468167671</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1077752339586598</v>
+        <v>0.1068163404352013</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1767560241827791</v>
+        <v>0.1779471819762141</v>
       </c>
     </row>
     <row r="24">
